--- a/Dog Digger/Report_2330.xlsx
+++ b/Dog Digger/Report_2330.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,21 @@
           <t>EPS</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>研營比</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>研支比</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>毛率</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -516,6 +531,15 @@
       <c r="J2" t="n">
         <v>2.37</v>
       </c>
+      <c r="K2" t="n">
+        <v>9.335571007467616</v>
+      </c>
+      <c r="L2" t="n">
+        <v>78.47375201173125</v>
+      </c>
+      <c r="M2" t="n">
+        <v>41.31242741089117</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -548,6 +572,15 @@
       <c r="J3" t="n">
         <v>2.57</v>
       </c>
+      <c r="K3" t="n">
+        <v>8.877121732824243</v>
+      </c>
+      <c r="L3" t="n">
+        <v>78.75476509382754</v>
+      </c>
+      <c r="M3" t="n">
+        <v>43.01820997000085</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -580,6 +613,15 @@
       <c r="J4" t="n">
         <v>3.9</v>
       </c>
+      <c r="K4" t="n">
+        <v>8.180327283646957</v>
+      </c>
+      <c r="L4" t="n">
+        <v>76.39539789616308</v>
+      </c>
+      <c r="M4" t="n">
+        <v>47.58038940165863</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -612,6 +654,15 @@
       <c r="J5" t="n">
         <v>4.47</v>
       </c>
+      <c r="K5" t="n">
+        <v>8.080906624199162</v>
+      </c>
+      <c r="L5" t="n">
+        <v>73.36493447357599</v>
+      </c>
+      <c r="M5" t="n">
+        <v>50.19621052161732</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -644,6 +695,15 @@
       <c r="J6" t="n">
         <v>4.51</v>
       </c>
+      <c r="K6" t="n">
+        <v>8.038992098650168</v>
+      </c>
+      <c r="L6" t="n">
+        <v>77.24792706726959</v>
+      </c>
+      <c r="M6" t="n">
+        <v>51.7661427083838</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -676,6 +736,15 @@
       <c r="J7" t="n">
         <v>4.66</v>
       </c>
+      <c r="K7" t="n">
+        <v>8.011964543090116</v>
+      </c>
+      <c r="L7" t="n">
+        <v>74.2616840234495</v>
+      </c>
+      <c r="M7" t="n">
+        <v>53.00730306059188</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -708,6 +777,15 @@
       <c r="J8" t="n">
         <v>5.3</v>
       </c>
+      <c r="K8" t="n">
+        <v>8.328161809337677</v>
+      </c>
+      <c r="L8" t="n">
+        <v>72.5917519730026</v>
+      </c>
+      <c r="M8" t="n">
+        <v>53.44182550618528</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -740,6 +818,15 @@
       <c r="J9" t="n">
         <v>5.51</v>
       </c>
+      <c r="K9" t="n">
+        <v>8.281514351258895</v>
+      </c>
+      <c r="L9" t="n">
+        <v>78.12966522473229</v>
+      </c>
+      <c r="M9" t="n">
+        <v>53.98920575055465</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -772,6 +859,15 @@
       <c r="J10" t="n">
         <v>5.39</v>
       </c>
+      <c r="K10" t="n">
+        <v>8.486614188567469</v>
+      </c>
+      <c r="L10" t="n">
+        <v>78.63696390808379</v>
+      </c>
+      <c r="M10" t="n">
+        <v>52.36475223119391</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -804,6 +900,15 @@
       <c r="J11" t="n">
         <v>5.18</v>
       </c>
+      <c r="K11" t="n">
+        <v>8.296058224296702</v>
+      </c>
+      <c r="L11" t="n">
+        <v>76.07385902367082</v>
+      </c>
+      <c r="M11" t="n">
+        <v>50.04341693346178</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -836,6 +941,15 @@
       <c r="J12" t="n">
         <v>6.03</v>
       </c>
+      <c r="K12" t="n">
+        <v>7.443655385860103</v>
+      </c>
+      <c r="L12" t="n">
+        <v>74.10971489114168</v>
+      </c>
+      <c r="M12" t="n">
+        <v>51.32960895670824</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -868,6 +982,15 @@
       <c r="J13" t="n">
         <v>6.41</v>
       </c>
+      <c r="K13" t="n">
+        <v>7.35718251417117</v>
+      </c>
+      <c r="L13" t="n">
+        <v>67.3347826909704</v>
+      </c>
+      <c r="M13" t="n">
+        <v>52.64373749915293</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -900,6 +1023,15 @@
       <c r="J14" t="n">
         <v>7.82</v>
       </c>
+      <c r="K14" t="n">
+        <v>7.340727162949014</v>
+      </c>
+      <c r="L14" t="n">
+        <v>74.15687622541229</v>
+      </c>
+      <c r="M14" t="n">
+        <v>55.63359574784078</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -932,6 +1064,15 @@
       <c r="J15" t="n">
         <v>9.140000000000001</v>
       </c>
+      <c r="K15" t="n">
+        <v>7.42297338195512</v>
+      </c>
+      <c r="L15" t="n">
+        <v>74.28475513352645</v>
+      </c>
+      <c r="M15" t="n">
+        <v>59.06082989263011</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -964,6 +1105,15 @@
       <c r="J16" t="n">
         <v>10.83</v>
       </c>
+      <c r="K16" t="n">
+        <v>7.009380358922392</v>
+      </c>
+      <c r="L16" t="n">
+        <v>71.40726597286945</v>
+      </c>
+      <c r="M16" t="n">
+        <v>60.42617664970064</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -996,6 +1146,15 @@
       <c r="J17" t="n">
         <v>11.41</v>
       </c>
+      <c r="K17" t="n">
+        <v>7.12785923162591</v>
+      </c>
+      <c r="L17" t="n">
+        <v>69.08928035786633</v>
+      </c>
+      <c r="M17" t="n">
+        <v>62.21664297365582</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1028,6 +1187,15 @@
       <c r="J18" t="n">
         <v>7.98</v>
       </c>
+      <c r="K18" t="n">
+        <v>7.698485563970703</v>
+      </c>
+      <c r="L18" t="n">
+        <v>70.79642094471416</v>
+      </c>
+      <c r="M18" t="n">
+        <v>56.32753030346698</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1060,6 +1228,15 @@
       <c r="J19" t="n">
         <v>7.01</v>
       </c>
+      <c r="K19" t="n">
+        <v>8.665079722964036</v>
+      </c>
+      <c r="L19" t="n">
+        <v>71.59651692529336</v>
+      </c>
+      <c r="M19" t="n">
+        <v>54.11346152923892</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1091,6 +1268,56 @@
       </c>
       <c r="J20" t="n">
         <v>8.140000000000001</v>
+      </c>
+      <c r="K20" t="n">
+        <v>9.35333785139686</v>
+      </c>
+      <c r="L20" t="n">
+        <v>74.42681097386796</v>
+      </c>
+      <c r="M20" t="n">
+        <v>54.2573057237591</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>625528856</v>
+      </c>
+      <c r="B21" t="n">
+        <v>331767925</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-2975547</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-18235380</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-50410094</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-71621021</v>
+      </c>
+      <c r="G21" t="n">
+        <v>260204503</v>
+      </c>
+      <c r="H21" t="n">
+        <v>238306201</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-21898302</v>
+      </c>
+      <c r="J21" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="K21" t="n">
+        <v>8.058795931869849</v>
+      </c>
+      <c r="L21" t="n">
+        <v>70.38449507722041</v>
+      </c>
+      <c r="M21" t="n">
+        <v>53.0379888661763</v>
       </c>
     </row>
   </sheetData>
